--- a/data/data_sources.xlsx
+++ b/data/data_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="9780" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="18140" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,153 +19,148 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+  <si>
+    <t>The HUGE precurser file came from a cuff diff including bop27 data, which was identical to the second anaerobe2 fpkm file, so I assumed the HUGE data was under similar conditions. Also it's minspan fpkm averages line up well with the anerobic data.</t>
+  </si>
+  <si>
+    <t>Some sleuthing:</t>
+  </si>
+  <si>
+    <t>Assuming the HUGE precurser is the same as the anaerobe data, that clears up a bunch of what Merve did.</t>
+  </si>
+  <si>
+    <t>Ali did the processing for all of these files.</t>
+  </si>
+  <si>
+    <t>Ali confirmed that conditions for the WT isoforms, and that Gaby did them. Also that Jose did the rpoB mutant</t>
+  </si>
   <si>
     <t>Filename</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Strain</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WT or …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Carbon Source</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Collected by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date collected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bop27_1_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNAseq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bop27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bop27_2_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anaerobe1_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anaerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anaerobe2_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpoBisoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔrpoB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bop384_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bop384</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evolved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anaerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merve?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Media</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Aerobic/Anaerobic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anaerobe1_isoforms.fpkm_tracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>anaerobe2_isoforms.fpkm_tracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rpoBisoforms.fpkm_tracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WT or …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ΔrpoB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glucose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glucose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anaerobic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27_1_isoforms.fpkm_tracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bop27_2_isoforms.fpkm_tracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RNAseq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collected by</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Merve?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaby?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaby?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YE (?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aerobic?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aerobic?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aerobic?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jose?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M9?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +168,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -182,13 +183,32 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,8 +223,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,188 +571,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A15" sqref="A15:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7109375" style="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="34" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:I15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/data_sources.xlsx
+++ b/data/data_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="18140" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="17840" yWindow="3400" windowWidth="18140" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>The HUGE precurser file came from a cuff diff including bop27 data, which was identical to the second anaerobe2 fpkm file, so I assumed the HUGE data was under similar conditions. Also it's minspan fpkm averages line up well with the anerobic data.</t>
   </si>
@@ -161,6 +161,46 @@
   </si>
   <si>
     <t>Aerobic/Anaerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNAseq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anaerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glucose?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M9?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WT?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bop27?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arvsan_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNAseq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aerobic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,12 +208,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -574,7 +608,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:I15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -771,6 +805,52 @@
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>1</v>
@@ -845,7 +925,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/data_sources.xlsx
+++ b/data/data_sources.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17840" yWindow="3400" windowWidth="18140" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="16400" yWindow="3400" windowWidth="18140" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>The HUGE precurser file came from a cuff diff including bop27 data, which was identical to the second anaerobe2 fpkm file, so I assumed the HUGE data was under similar conditions. Also it's minspan fpkm averages line up well with the anerobic data.</t>
   </si>
@@ -192,15 +192,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arvsan_isoforms.fpkm_tracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RNAseq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Aerobic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ar_isoforms.fpkm_tracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>an and ar_isoforms come from a comparison of anerobic vs aerobic data, which I received from Ali but we don't know the source.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,6 +212,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
@@ -605,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -830,10 +840,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>43</v>
@@ -848,7 +858,7 @@
         <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -915,6 +925,11 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
